--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_2_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_2_sine_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.45000000000038</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.196171105557255e-10</v>
+        <v>1.156297280147101e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>6.216918501853738e-10</v>
+        <v>1.789934739379574e-11</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>31.27998749042442</v>
+        <v>37.45344619284136</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[20.739538554375024, 41.820436426473826]</t>
+          <t>[26.29164391562675, 48.615248470055974]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.088621076090647e-08</v>
+        <v>3.632472100889572e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.088621076090647e-08</v>
+        <v>7.264944201779144e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941349</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0503422885875775, 1.77992136329512]</t>
+          <t>[1.415131825941347, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.825473767932635e-13</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.965094753586527e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.0587363436517</v>
+        <v>58.24813392078907</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.801919567647474, 59.31555311965593]</t>
+          <t>[51.64220429992177, 64.85406354165637]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.94324324324354</v>
+        <v>18.27765765765803</v>
       </c>
       <c r="X2" t="n">
-        <v>17.52372372372399</v>
+        <v>16.9612612612616</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.36276276276308</v>
+        <v>19.59405405405446</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9400000000003</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.155431637149377e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>4.375263151232145e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.491035009072182e-11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05290184476899396</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.82803316936919</v>
+        <v>38.88571068436831</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.06487312737552, 55.591193211362864]</t>
+          <t>[25.84184413885476, 51.92957722988185]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.822800710371553e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.822800710371553e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05660527303765406</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 0.2956053147521933]</t>
+          <t>[0.672973801669885, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.6408995569553833</v>
+        <v>7.050193362445611e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6408995569553833</v>
+        <v>7.050193362445611e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>58.24508637573019</v>
+        <v>61.48884656923518</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.87896717209391, 64.61120557936647]</t>
+          <t>[54.54952681178537, 68.42816632668499]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.72432432432462</v>
+        <v>20.45345345345378</v>
       </c>
       <c r="X3" t="n">
-        <v>22.81369369369398</v>
+        <v>19.03103103103133</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.63495495495527</v>
+        <v>21.87587587587623</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_2_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_2_sine_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.29000000000051</v>
+        <v>24.5700000000004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.156297280147101e-12</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.789934739379574e-11</v>
+        <v>1.496929920842908e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>37.45344619284136</v>
+        <v>42.67630350487158</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[26.29164391562675, 48.615248470055974]</t>
+          <t>[30.962461645099708, 54.390145364643445]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.632472100889572e-10</v>
+        <v>1.494204759922013e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>7.264944201779144e-10</v>
+        <v>2.988409519844026e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.742184514603348</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.415131825941347, 2.0692372032653497]</t>
+          <t>[0.9245527929483472, 1.5535002711445038]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.811706588725428e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.623413177450857e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>58.24813392078907</v>
+        <v>55.94601666586274</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.64220429992177, 64.85406354165637]</t>
+          <t>[49.410909170829456, 62.481124160896016]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.27765765765803</v>
+        <v>19.72486486486519</v>
       </c>
       <c r="X2" t="n">
-        <v>16.9612612612616</v>
+        <v>18.49513513513543</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.59405405405446</v>
+        <v>20.95459459459494</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.50000000000039</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.155431637149377e-12</v>
+        <v>7.461364859295827e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>2.491035009072182e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.05290184476899396</v>
-      </c>
+        <v>1.785521810919475e-11</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.88571068436831</v>
+        <v>35.84541734459532</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[25.84184413885476, 51.92957722988185]</t>
+          <t>[23.48071073787434, 48.2101239513163]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.822800710371553e-08</v>
+        <v>4.138548859167201e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.822800710371553e-08</v>
+        <v>4.138548859167201e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.037763339023655</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.4025528763774258]</t>
+          <t>[0.5849211547224238, 1.2893423303021185]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.050193362445611e-08</v>
+        <v>4.096822359134222e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>7.050193362445611e-08</v>
+        <v>4.096822359134222e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>61.48884656923518</v>
+        <v>55.82651339527146</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.54952681178537, 68.42816632668499]</t>
+          <t>[49.33525191573959, 62.317774874803334]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.45345345345378</v>
+        <v>20.65865865865896</v>
       </c>
       <c r="X3" t="n">
-        <v>19.03103103103133</v>
+        <v>19.2976176176179</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.87587587587623</v>
+        <v>22.01969969970002</v>
       </c>
     </row>
   </sheetData>
